--- a/data/trans_bre/P14_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,63</t>
+          <t>-2,76; 4,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,41</t>
+          <t>-5,07; 6,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,31; 69,27</t>
+          <t>-62,34; 294,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 97,14</t>
+          <t>-42,92; 115,97</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,38%</t>
+          <t>-58,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>-28,29%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,46</t>
+          <t>-7,98; 0,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 2,76</t>
+          <t>-9,06; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 77,97</t>
+          <t>-92,37; 52,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 55,96</t>
+          <t>-67,3; 65,68</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-45,59%</t>
+          <t>-13,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-62,64%</t>
+          <t>-38,96%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,09</t>
+          <t>-10,0; 4,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 1,19</t>
+          <t>-28,35; 8,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-12,62%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,81</t>
+          <t>-3,44; 1,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,94</t>
+          <t>-5,97; 2,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,21; 33,07</t>
+          <t>-61,58; 74,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 30,57</t>
+          <t>-48,69; 36,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>35,87%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7465305941892063</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.184521284676967</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2318943369371284</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1417788740326366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 4,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 6,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-62,34; 294,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-42,92; 115,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.34779745044043</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.595278915665679</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.6554679291679305</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.414151290612264</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.063628200032802</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.635707267489066</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.645573157243325</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.218329471843108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-58,67%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-28,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 0,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 3,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-92,37; 52,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-67,3; 65,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.553528647061067</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.370175754272497</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.5417329594536986</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2568467531168797</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,9%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-38,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.020176755878822</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.329982378227403</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9222763290503477</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6605596412291449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,0; 4,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-28,35; 8,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9080428316030944</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.905065599159224</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6314543730896434</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7470525289583247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-18,31%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.551187094845464</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.638166708152198</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1936074160011134</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.4527690226849662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 1,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 2,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-61,58; 74,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-48,69; 36,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.83222207220538</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-27.49408158919735</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.794892768788999</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.017965643024761</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.7304924594072812</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9630574769405389</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1918992617806976</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1052241311368423</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.408367017917442</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.419349164105265</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6137661951616048</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4711170013374498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.793516021054747</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.095140383832382</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7031154619532699</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4114440990558015</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +836,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
